--- a/docentes/Cruz Alejo José Armando - Estadisticos 20242.xlsx
+++ b/docentes/Cruz Alejo José Armando - Estadisticos 20242.xlsx
@@ -597,16 +597,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>91.89</v>
+      </c>
+      <c r="H2">
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -620,16 +623,19 @@
         <v>28</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>28</v>
       </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -643,16 +649,19 @@
         <v>31</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="E4">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +729,7 @@
         <v>91.89</v>
       </c>
       <c r="H2">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -746,7 +755,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -772,7 +781,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>
